--- a/문서/Enemy.xlsx
+++ b/문서/Enemy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SJpark\Desktop\PROJ\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C0E281-BDA7-4537-B1D2-891B54F928F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD633C85-3493-4B0A-AD27-1C36DBA665F0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C933112E-FF2E-4815-B584-FEEC2BB4A3CA}"/>
+    <workbookView xWindow="8925" yWindow="2145" windowWidth="19065" windowHeight="12420" xr2:uid="{C933112E-FF2E-4815-B584-FEEC2BB4A3CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -510,9 +510,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -831,7 +834,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -892,7 +895,7 @@
       <c r="E2">
         <v>10101</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <v>11201</v>
       </c>
       <c r="I2">
@@ -915,11 +918,17 @@
       <c r="E3">
         <v>10101</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
+        <v>11202</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
         <v>11201</v>
       </c>
-      <c r="I3">
-        <v>2</v>
+      <c r="K3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -941,11 +950,17 @@
       <c r="F4">
         <v>10102</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
+        <v>11203</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
         <v>11201</v>
       </c>
-      <c r="I4">
-        <v>3</v>
+      <c r="K4">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/문서/Enemy.xlsx
+++ b/문서/Enemy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SJpark\Desktop\PROJ\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD633C85-3493-4B0A-AD27-1C36DBA665F0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942061FD-F66E-47C0-958A-60DC0E238066}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8925" yWindow="2145" windowWidth="19065" windowHeight="12420" xr2:uid="{C933112E-FF2E-4815-B584-FEEC2BB4A3CA}"/>
+    <workbookView xWindow="4980" yWindow="3615" windowWidth="23910" windowHeight="8940" xr2:uid="{C933112E-FF2E-4815-B584-FEEC2BB4A3CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -834,7 +834,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -910,10 +910,10 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D3">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="E3">
         <v>10101</v>
@@ -939,10 +939,10 @@
         <v>13</v>
       </c>
       <c r="C4">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="E4">
         <v>10101</v>
